--- a/data/case1/14/Plm2_5.xlsx
+++ b/data/case1/14/Plm2_5.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.3098136534814131</v>
+        <v>-0.26275633660550568</v>
       </c>
       <c r="B1" s="0">
-        <v>0.30890171790095167</v>
+        <v>0.26209006382262601</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.19612741584132465</v>
+        <v>-0.17764675689583775</v>
       </c>
       <c r="B2" s="0">
-        <v>0.19404164447293759</v>
+        <v>0.17588088032066729</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.091095868809837555</v>
+        <v>-0.072934656668248721</v>
       </c>
       <c r="B3" s="0">
-        <v>0.090570934597383967</v>
+        <v>0.072532645400791296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.15256251665667619</v>
+        <v>-0.13452930694590037</v>
       </c>
       <c r="B4" s="0">
-        <v>0.15169160588160224</v>
+        <v>0.13383831525510814</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.14569160678176196</v>
+        <v>-0.12783831554415315</v>
       </c>
       <c r="B5" s="0">
-        <v>0.14394225843479092</v>
+        <v>0.12646541297734792</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.043006497276682598</v>
+        <v>-0.0018633111805912428</v>
       </c>
       <c r="B6" s="0">
-        <v>0.042982977868100125</v>
+        <v>0.0018581622343569748</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.022982978956219924</v>
+        <v>0.018141837413656603</v>
       </c>
       <c r="B7" s="0">
-        <v>0.022959579459874035</v>
+        <v>-0.018200044933694315</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0029595805511393181</v>
+        <v>0.038200044582343828</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0029482483934017978</v>
+        <v>-0.038409664603356042</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0030517506719132115</v>
+        <v>0.044409664309439378</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0030671212477599852</v>
+        <v>-0.044667317673400042</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0090671203132259848</v>
+        <v>0.050667317382405486</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0090658962774057272</v>
+        <v>-0.050722430106496574</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.031739244677794431</v>
+        <v>0.055222429821775165</v>
       </c>
       <c r="B11" s="0">
-        <v>0.031715065281051835</v>
+        <v>-0.055349553414210106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.025715066217394611</v>
+        <v>-0.010022512059513655</v>
       </c>
       <c r="B12" s="0">
-        <v>0.025644301623291454</v>
+        <v>0.010012781357204403</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.019644302567777494</v>
+        <v>-0.0040127816475434841</v>
       </c>
       <c r="B13" s="0">
-        <v>0.019630247764953701</v>
+        <v>0.0040115520609038668</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0076302487791037876</v>
+        <v>0.0079884476250455805</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0076284064090854642</v>
+        <v>-0.0079970203131933815</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0016284073564509782</v>
+        <v>-0.021050216573242686</v>
       </c>
       <c r="B15" s="0">
-        <v>0.001627792183802157</v>
+        <v>0.02102619411688611</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0043722068686369298</v>
+        <v>-0.015026194408048976</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.0043780927808296788</v>
+        <v>0.015004304437423954</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.039207288937694429</v>
+        <v>-0.009004304729754331</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.039311243231316517</v>
+        <v>0.0089999996956278139</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.10277430296472545</v>
+        <v>-0.074443307220576571</v>
       </c>
       <c r="B18" s="0">
-        <v>0.10260658614427598</v>
+        <v>0.074360235061568858</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.093606587040312661</v>
+        <v>-0.0653602353520637</v>
       </c>
       <c r="B19" s="0">
-        <v>0.092239401535488597</v>
+        <v>0.064735483373748792</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.08323940246256889</v>
+        <v>-0.018014158077413356</v>
       </c>
       <c r="B20" s="0">
-        <v>0.082926023776037638</v>
+        <v>0.018004365780686982</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.073926024710166072</v>
+        <v>-0.0090043660781677914</v>
       </c>
       <c r="B21" s="0">
-        <v>0.073471920853060979</v>
+        <v>0.0089999997022234268</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093945776578268081</v>
+        <v>-0.093946223948108809</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093633989807875295</v>
+        <v>0.093633472278217056</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084633990731493469</v>
+        <v>-0.084633472576572721</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084126496756991465</v>
+        <v>0.084126677683371121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042126498066586748</v>
+        <v>-0.042126678116074068</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998683304618</v>
+        <v>0.041999999564986013</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.094935762086773678</v>
+        <v>-0.11860210209372468</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094693732585110268</v>
+        <v>0.11823815044909836</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.088693733516336692</v>
+        <v>-0.11223815074758647</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088379482868660375</v>
+        <v>0.11176337209074916</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082379483805365972</v>
+        <v>-0.082370779569619135</v>
       </c>
       <c r="B27" s="0">
-        <v>0.081294358852266324</v>
+        <v>0.081291478843177334</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075294359810640366</v>
+        <v>-0.075291479150605412</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074542754452807003</v>
+        <v>0.074543564638664961</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062542755493558033</v>
+        <v>-0.06254356497444391</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062171338216218786</v>
+        <v>0.06217245575560959</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042171339354221349</v>
+        <v>-0.042172456125110003</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042018700693745803</v>
+        <v>0.04202041015336988</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027018701785387123</v>
+        <v>-0.02702041050634385</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000477438194892</v>
+        <v>0.027000782997557593</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060004785991001341</v>
+        <v>-0.0060007833746036354</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999990078676291</v>
+        <v>0.0059999996817685641</v>
       </c>
     </row>
   </sheetData>
